--- a/android/flow-android.xlsx
+++ b/android/flow-android.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-webviewapp-sample-v2/android/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-sample-app-v2/android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643D71E6-D9C6-E849-A6B5-2876B5082341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9DE1D-E9AD-444B-B078-6A61BED606FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>にアクセス</t>
   </si>
@@ -66,12 +66,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>裏で本物のAmazonPayボタンを</t>
-  </si>
-  <si>
-    <t>を指定して、自動的にClick。</t>
-  </si>
-  <si>
     <t>https://10.0.2.2:3443/sample/cart</t>
   </si>
   <si>
@@ -88,6 +82,9 @@
   </si>
   <si>
     <t>https://10.0.2.2:3443/sample/checkoutReview?amazonCheckoutSessionId={id}</t>
+  </si>
+  <si>
+    <t>自動的にLogin画面に遷移</t>
   </si>
 </sst>
 </file>
@@ -4900,7 +4897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA858D-4327-E246-AC75-10AD98E76650}">
   <dimension ref="B1:BE58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7486,7 +7485,7 @@
       <c r="B46" s="15"/>
       <c r="C46" s="23"/>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -7620,7 +7619,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="10"/>
@@ -7679,9 +7678,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -7738,7 +7735,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -7759,7 +7756,7 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH50" s="5"/>
       <c r="AK50" s="5"/>
@@ -7769,7 +7766,7 @@
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR50" s="5"/>
       <c r="AS50" s="5"/>
@@ -7779,7 +7776,7 @@
       <c r="AW50" s="5"/>
       <c r="AX50" s="5"/>
       <c r="AY50" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ50" s="5"/>
       <c r="BA50" s="5"/>
@@ -7835,7 +7832,7 @@
       <c r="AO51" s="5"/>
       <c r="AP51" s="5"/>
       <c r="AQ51" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR51" s="5"/>
       <c r="AS51" s="5"/>

--- a/android/flow-android.xlsx
+++ b/android/flow-android.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-sample-app-v2/android/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimtsuyo\Downloads\amazonpay-sample-app-v2-master\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9DE1D-E9AD-444B-B078-6A61BED606FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="-4725" yWindow="-21135" windowWidth="38400" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="flow" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
-  <si>
-    <t>にアクセス</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>N</t>
   </si>
@@ -72,30 +68,37 @@
     <t>https://10.0.2.2:3443/appLogin</t>
   </si>
   <si>
-    <t>Checkout Session Update APIの</t>
-  </si>
-  <si>
-    <t>戻り値のURLにアクセス</t>
-  </si>
-  <si>
     <t>https://10.0.2.2:3443/sample/thanks</t>
   </si>
   <si>
     <t>https://10.0.2.2:3443/sample/checkoutReview?amazonCheckoutSessionId={id}</t>
   </si>
   <si>
-    <t>自動的にLogin画面に遷移</t>
+    <t xml:space="preserve">Access to </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Access to</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Access to url of response of Update Checkout Session API</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Automatically move to Login Screen</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +106,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -111,7 +114,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -130,8 +133,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -310,8 +320,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,15 +930,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>974725</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -943,8 +953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="1320800"/>
-          <a:ext cx="2159000" cy="939800"/>
+          <a:off x="8159750" y="1717675"/>
+          <a:ext cx="2654300" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,8 +984,40 @@
         <a:p>
           <a:pPr algn="just"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Launch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MainActivity method</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> from JavaScript in </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WebView内のJavaScriptから、MainActivityのメソッドを起動</a:t>
+            <a:t>WebView.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1093,14 +1135,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>&lt;MainActivityr&gt;</a:t>
+            <a:t>&lt;MainActivity&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WebViewの起動</a:t>
+            <a:t>Launch WebView</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1163,13 +1205,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>&lt;MainActivityr&gt;</a:t>
+            <a:t>&lt;MainActivity&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Launch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
             <a:t>Chrome</a:t>
           </a:r>
           <a:r>
@@ -1188,10 +1238,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Tabs</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>を起動</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1383,7 +1430,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MainActivityに遷移先URLを設定</a:t>
+            <a:t>Set target</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> url in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MainActivity</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1449,8 +1504,21 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Applinksにより、AmazonPayActivityが起動。</a:t>
-          </a:r>
+            <a:t>Launch AmazonPayActivity by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Applinks</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1519,7 +1587,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>遷移先URLをloadするJavaScriptを起動</a:t>
+            <a:t>Launch JavaScript to load target url</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2087,7 +2155,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MainActivityに遷移先URLを設定</a:t>
+            <a:t>Set target url in MainActivity</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2331,7 +2399,23 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>intentにより、AmazonPayActivityが起動。</a:t>
+            <a:t>Launch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AmazonPayActivity by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>intent</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2434,8 +2518,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5308600" y="3009900"/>
-          <a:ext cx="3821853" cy="6197600"/>
+          <a:off x="6247493" y="3595914"/>
+          <a:ext cx="4660960" cy="7491186"/>
           <a:chOff x="5308600" y="3009900"/>
           <a:chExt cx="3821853" cy="6197600"/>
         </a:xfrm>
@@ -2731,11 +2815,19 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Applinksが発動しなかった場合、</a:t>
+            <a:t>In case of NOT working Applinks;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>redirect to   </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
@@ -2744,14 +2836,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>https://localhost:3443/static/next.html</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="just"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>にリダイレクト</a:t>
+            <a:t>https://localhost:3443/static/next.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2784,8 +2869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24625300" y="3009900"/>
-          <a:ext cx="3822700" cy="6198973"/>
+          <a:off x="29424086" y="3595914"/>
+          <a:ext cx="4661807" cy="7492559"/>
           <a:chOff x="24625300" y="3009900"/>
           <a:chExt cx="3822700" cy="6198973"/>
         </a:xfrm>
@@ -3016,7 +3101,7 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Applinksが発動した場合</a:t>
+            <a:t>In case of working Applinks</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3152,15 +3237,20 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>&lt;MainActivityr&gt;</a:t>
+            <a:t>&lt;MainActivity&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>遷移先URLをloadするJavaScriptを起動</a:t>
-          </a:r>
+            <a:t>Launch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> JavaScript to load target url</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3356,8 +3446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29845000" y="3035300"/>
-          <a:ext cx="3822700" cy="6198973"/>
+          <a:off x="35818536" y="3621314"/>
+          <a:ext cx="4493985" cy="7492559"/>
           <a:chOff x="23114000" y="10401300"/>
           <a:chExt cx="3822700" cy="6198973"/>
         </a:xfrm>
@@ -3715,6 +3805,22 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Obtain </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>checkoutSession by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Amazon</a:t>
           </a:r>
           <a:r>
@@ -3732,18 +3838,6 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
             <a:t>API</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>checkoutSession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>を取得</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
@@ -4101,6 +4195,22 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Update </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>checkoutSession by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Amazon</a:t>
           </a:r>
           <a:r>
@@ -4118,18 +4228,6 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
             <a:t>API</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>checkoutSession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>を更新</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
@@ -4246,14 +4344,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>&lt;MainActivityr&gt;</a:t>
+            <a:t>&lt;MainActivity&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Chrome</a:t>
+            <a:t>Launch Chrome</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -4271,10 +4369,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Tabs</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>を起動</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4338,7 +4433,39 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WebView内のJavaScriptから、MainActivityのメソッドを起動</a:t>
+            <a:t>Launch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MainActivity method from JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WebView</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4371,8 +4498,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="42329100" y="2819400"/>
-          <a:ext cx="3835400" cy="6219568"/>
+          <a:off x="50819957" y="3362779"/>
+          <a:ext cx="4506686" cy="7514060"/>
           <a:chOff x="42329100" y="2819400"/>
           <a:chExt cx="3835400" cy="6219568"/>
         </a:xfrm>
@@ -4894,20 +5021,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA858D-4327-E246-AC75-10AD98E76650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BE58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="10.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:57" ht="20.25" thickBot="1"/>
+    <row r="2" spans="2:57">
       <c r="B2" s="13"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -4965,7 +5092,7 @@
       <c r="BD2" s="3"/>
       <c r="BE2" s="4"/>
     </row>
-    <row r="3" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:57">
       <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -5023,9 +5150,9 @@
       <c r="BD3" s="5"/>
       <c r="BE3" s="6"/>
     </row>
-    <row r="4" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:57">
       <c r="B4" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="5"/>
@@ -5083,9 +5210,9 @@
       <c r="BD4" s="5"/>
       <c r="BE4" s="6"/>
     </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:57">
       <c r="B5" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
@@ -5143,9 +5270,9 @@
       <c r="BD5" s="5"/>
       <c r="BE5" s="6"/>
     </row>
-    <row r="6" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:57">
       <c r="B6" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
@@ -5202,9 +5329,9 @@
       <c r="BD6" s="5"/>
       <c r="BE6" s="6"/>
     </row>
-    <row r="7" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:57">
       <c r="B7" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
@@ -5261,9 +5388,9 @@
       <c r="BD7" s="5"/>
       <c r="BE7" s="6"/>
     </row>
-    <row r="8" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:57">
       <c r="B8" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
@@ -5321,9 +5448,9 @@
       <c r="BD8" s="5"/>
       <c r="BE8" s="6"/>
     </row>
-    <row r="9" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:57">
       <c r="B9" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
@@ -5381,7 +5508,7 @@
       <c r="BD9" s="5"/>
       <c r="BE9" s="6"/>
     </row>
-    <row r="10" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:57">
       <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
@@ -5439,9 +5566,9 @@
       <c r="BD10" s="5"/>
       <c r="BE10" s="6"/>
     </row>
-    <row r="11" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:57">
       <c r="B11" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
@@ -5498,9 +5625,9 @@
       <c r="BD11" s="5"/>
       <c r="BE11" s="6"/>
     </row>
-    <row r="12" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:57">
       <c r="B12" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
@@ -5558,9 +5685,9 @@
       <c r="BD12" s="5"/>
       <c r="BE12" s="6"/>
     </row>
-    <row r="13" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:57">
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
@@ -5618,7 +5745,7 @@
       <c r="BD13" s="5"/>
       <c r="BE13" s="6"/>
     </row>
-    <row r="14" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:57" ht="20.25" thickBot="1">
       <c r="B14" s="16"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -5676,7 +5803,7 @@
       <c r="BD14" s="10"/>
       <c r="BE14" s="11"/>
     </row>
-    <row r="15" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:57">
       <c r="B15" s="13"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -5734,9 +5861,9 @@
       <c r="BD15" s="3"/>
       <c r="BE15" s="4"/>
     </row>
-    <row r="16" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:57">
       <c r="B16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
@@ -5794,9 +5921,9 @@
       <c r="BD16" s="5"/>
       <c r="BE16" s="6"/>
     </row>
-    <row r="17" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:57">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
@@ -5854,9 +5981,9 @@
       <c r="BD17" s="5"/>
       <c r="BE17" s="6"/>
     </row>
-    <row r="18" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:57">
       <c r="B18" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="5"/>
@@ -5913,9 +6040,9 @@
       <c r="BD18" s="5"/>
       <c r="BE18" s="6"/>
     </row>
-    <row r="19" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:57">
       <c r="B19" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
@@ -5973,9 +6100,9 @@
       <c r="BD19" s="5"/>
       <c r="BE19" s="6"/>
     </row>
-    <row r="20" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:57">
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
@@ -6033,9 +6160,9 @@
       <c r="BD20" s="5"/>
       <c r="BE20" s="6"/>
     </row>
-    <row r="21" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:57">
       <c r="B21" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
@@ -6093,9 +6220,9 @@
       <c r="BD21" s="5"/>
       <c r="BE21" s="6"/>
     </row>
-    <row r="22" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:57">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
@@ -6153,7 +6280,7 @@
       <c r="BD22" s="5"/>
       <c r="BE22" s="6"/>
     </row>
-    <row r="23" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:57">
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
@@ -6209,7 +6336,7 @@
       <c r="BD23" s="5"/>
       <c r="BE23" s="6"/>
     </row>
-    <row r="24" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:57">
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
@@ -6266,7 +6393,7 @@
       <c r="BD24" s="5"/>
       <c r="BE24" s="6"/>
     </row>
-    <row r="25" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:57">
       <c r="B25" s="15"/>
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
@@ -6324,7 +6451,7 @@
       <c r="BD25" s="5"/>
       <c r="BE25" s="6"/>
     </row>
-    <row r="26" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:57">
       <c r="B26" s="15"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
@@ -6382,7 +6509,7 @@
       <c r="BD26" s="5"/>
       <c r="BE26" s="6"/>
     </row>
-    <row r="27" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:57">
       <c r="B27" s="15"/>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
@@ -6440,7 +6567,7 @@
       <c r="BD27" s="5"/>
       <c r="BE27" s="6"/>
     </row>
-    <row r="28" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:57">
       <c r="B28" s="15"/>
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
@@ -6498,7 +6625,7 @@
       <c r="BD28" s="5"/>
       <c r="BE28" s="6"/>
     </row>
-    <row r="29" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:57">
       <c r="B29" s="15"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
@@ -6556,7 +6683,7 @@
       <c r="BD29" s="5"/>
       <c r="BE29" s="6"/>
     </row>
-    <row r="30" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:57">
       <c r="B30" s="15"/>
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
@@ -6614,7 +6741,7 @@
       <c r="BD30" s="5"/>
       <c r="BE30" s="6"/>
     </row>
-    <row r="31" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:57">
       <c r="B31" s="15"/>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
@@ -6671,7 +6798,7 @@
       <c r="BD31" s="5"/>
       <c r="BE31" s="6"/>
     </row>
-    <row r="32" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:57">
       <c r="B32" s="15"/>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
@@ -6729,7 +6856,7 @@
       <c r="BD32" s="5"/>
       <c r="BE32" s="6"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:57">
       <c r="B33" s="15"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
@@ -6787,7 +6914,7 @@
       <c r="BD33" s="5"/>
       <c r="BE33" s="6"/>
     </row>
-    <row r="34" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:57">
       <c r="B34" s="15"/>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
@@ -6845,7 +6972,7 @@
       <c r="BD34" s="5"/>
       <c r="BE34" s="6"/>
     </row>
-    <row r="35" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:57">
       <c r="B35" s="15"/>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
@@ -6903,7 +7030,7 @@
       <c r="BD35" s="5"/>
       <c r="BE35" s="6"/>
     </row>
-    <row r="36" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:57">
       <c r="B36" s="15"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
@@ -6961,7 +7088,7 @@
       <c r="BD36" s="5"/>
       <c r="BE36" s="6"/>
     </row>
-    <row r="37" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:57">
       <c r="B37" s="15"/>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
@@ -7019,7 +7146,7 @@
       <c r="BD37" s="5"/>
       <c r="BE37" s="6"/>
     </row>
-    <row r="38" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:57">
       <c r="B38" s="15"/>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
@@ -7077,7 +7204,7 @@
       <c r="BD38" s="5"/>
       <c r="BE38" s="6"/>
     </row>
-    <row r="39" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:57">
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
       <c r="D39" s="5"/>
@@ -7135,7 +7262,7 @@
       <c r="BD39" s="5"/>
       <c r="BE39" s="6"/>
     </row>
-    <row r="40" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:57">
       <c r="B40" s="15"/>
       <c r="C40" s="7"/>
       <c r="D40" s="5"/>
@@ -7193,7 +7320,7 @@
       <c r="BD40" s="5"/>
       <c r="BE40" s="6"/>
     </row>
-    <row r="41" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:57">
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
@@ -7251,7 +7378,7 @@
       <c r="BD41" s="5"/>
       <c r="BE41" s="6"/>
     </row>
-    <row r="42" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:57">
       <c r="B42" s="15"/>
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
@@ -7309,7 +7436,7 @@
       <c r="BD42" s="5"/>
       <c r="BE42" s="6"/>
     </row>
-    <row r="43" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:57">
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
       <c r="D43" s="5"/>
@@ -7367,7 +7494,7 @@
       <c r="BD43" s="5"/>
       <c r="BE43" s="6"/>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:57">
       <c r="B44" s="15"/>
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
@@ -7425,9 +7552,12 @@
       <c r="BD44" s="5"/>
       <c r="BE44" s="6"/>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:57">
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -7481,11 +7611,11 @@
       <c r="BD45" s="5"/>
       <c r="BE45" s="6"/>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:57">
       <c r="B46" s="15"/>
       <c r="C46" s="23"/>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -7541,12 +7671,9 @@
       <c r="BD46" s="5"/>
       <c r="BE46" s="6"/>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:57">
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
-      <c r="D47" t="s">
-        <v>0</v>
-      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -7601,7 +7728,7 @@
       <c r="BD47" s="5"/>
       <c r="BE47" s="6"/>
     </row>
-    <row r="48" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:57" ht="20.25" thickBot="1">
       <c r="B48" s="16"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -7661,7 +7788,7 @@
       <c r="BD48" s="10"/>
       <c r="BE48" s="11"/>
     </row>
-    <row r="49" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:57">
       <c r="B49" s="13"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
@@ -7674,7 +7801,9 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
+      <c r="N49" t="s">
+        <v>16</v>
+      </c>
       <c r="O49" s="3"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="3"/>
@@ -7693,7 +7822,9 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="18"/>
+      <c r="AG49" t="s">
+        <v>16</v>
+      </c>
       <c r="AH49" s="18"/>
       <c r="AI49" s="18"/>
       <c r="AJ49" s="18"/>
@@ -7711,7 +7842,9 @@
       <c r="AV49" s="18"/>
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
-      <c r="AY49" s="3"/>
+      <c r="AY49" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
@@ -7719,9 +7852,9 @@
       <c r="BD49" s="3"/>
       <c r="BE49" s="4"/>
     </row>
-    <row r="50" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:57">
       <c r="B50" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="5"/>
@@ -7735,7 +7868,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -7756,7 +7889,7 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH50" s="5"/>
       <c r="AK50" s="5"/>
@@ -7766,7 +7899,7 @@
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR50" s="5"/>
       <c r="AS50" s="5"/>
@@ -7776,7 +7909,7 @@
       <c r="AW50" s="5"/>
       <c r="AX50" s="5"/>
       <c r="AY50" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ50" s="5"/>
       <c r="BA50" s="5"/>
@@ -7785,9 +7918,9 @@
       <c r="BD50" s="8"/>
       <c r="BE50" s="6"/>
     </row>
-    <row r="51" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:57">
       <c r="B51" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="5"/>
@@ -7800,9 +7933,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
@@ -7822,18 +7953,14 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
-      <c r="AH51" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="AH51" s="5"/>
       <c r="AK51" s="5"/>
       <c r="AL51" s="5"/>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
       <c r="AP51" s="5"/>
-      <c r="AQ51" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AQ51" s="5"/>
       <c r="AR51" s="5"/>
       <c r="AS51" s="5"/>
       <c r="AT51" s="5"/>
@@ -7841,9 +7968,7 @@
       <c r="AV51" s="5"/>
       <c r="AW51" s="5"/>
       <c r="AX51" s="5"/>
-      <c r="AY51" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="AY51" s="5"/>
       <c r="AZ51" s="5"/>
       <c r="BA51" s="5"/>
       <c r="BB51" s="5"/>
@@ -7851,9 +7976,9 @@
       <c r="BD51" s="5"/>
       <c r="BE51" s="6"/>
     </row>
-    <row r="52" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:57">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="5"/>
@@ -7911,9 +8036,9 @@
       <c r="BD52" s="5"/>
       <c r="BE52" s="6"/>
     </row>
-    <row r="53" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:57">
       <c r="B53" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="5"/>
@@ -7971,9 +8096,9 @@
       <c r="BD53" s="5"/>
       <c r="BE53" s="6"/>
     </row>
-    <row r="54" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:57">
       <c r="B54" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="5"/>
@@ -8030,9 +8155,9 @@
       <c r="BD54" s="5"/>
       <c r="BE54" s="6"/>
     </row>
-    <row r="55" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:57">
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="5"/>
@@ -8090,7 +8215,7 @@
       <c r="BD55" s="5"/>
       <c r="BE55" s="6"/>
     </row>
-    <row r="56" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:57">
       <c r="B56" s="15"/>
       <c r="C56" s="7"/>
       <c r="D56" s="5"/>
@@ -8148,7 +8273,7 @@
       <c r="BD56" s="5"/>
       <c r="BE56" s="6"/>
     </row>
-    <row r="57" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:57">
       <c r="B57" s="15"/>
       <c r="C57" s="7"/>
       <c r="D57" s="5"/>
@@ -8206,7 +8331,7 @@
       <c r="BD57" s="5"/>
       <c r="BE57" s="6"/>
     </row>
-    <row r="58" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:57" ht="20.25" thickBot="1">
       <c r="B58" s="16"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
@@ -8265,13 +8390,15 @@
       <c r="BE58" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink ref="D46" r:id="rId1" xr:uid="{851CF3EA-80A5-554A-89E2-4067BC403FD8}"/>
-    <hyperlink ref="N50" r:id="rId2" xr:uid="{3B8CC646-F1EE-D945-B7AA-66FE762C39BA}"/>
-    <hyperlink ref="AG50" r:id="rId3" xr:uid="{963F8217-8F49-1D42-AC2F-9F1B1BE787E8}"/>
-    <hyperlink ref="AY50" r:id="rId4" xr:uid="{569950C8-C575-B142-954C-9A269C45E2CA}"/>
+    <hyperlink ref="D46" r:id="rId1"/>
+    <hyperlink ref="N50" r:id="rId2"/>
+    <hyperlink ref="AG50" r:id="rId3"/>
+    <hyperlink ref="AY50" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/android/flow-android.xlsx
+++ b/android/flow-android.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-sample-app-v2/android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F9DE1D-E9AD-444B-B078-6A61BED606FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA5F27-3D7A-9C41-B865-46EE3E3C3CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="-2860" yWindow="-28740" windowWidth="51400" windowHeight="24300" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
     <sheet name="flow" sheetId="4" r:id="rId1"/>
+    <sheet name="flow-fixed-signature" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>にアクセス</t>
   </si>
@@ -4598,6 +4599,1354 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B99C6E6-E53F-F34B-8521-1A96BD18EB48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11391900" y="2286000"/>
+          <a:ext cx="15773400" cy="7289800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Secure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WebView</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>52173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F22507-48DB-3146-A6D2-AE6E281EEA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392400" y="3022600"/>
+          <a:ext cx="3822700" cy="6198973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>34668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6E132D-9FEB-7646-AF31-1C876478D953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11595100" y="2984500"/>
+          <a:ext cx="3835400" cy="6219568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117274</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371730</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>61846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="U-Turn Arrow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8166938B-7D1B-0B4C-B821-63D386B35888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8620063">
+          <a:off x="14150774" y="8828502"/>
+          <a:ext cx="1079956" cy="605944"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01AAAA3-88E3-6B4C-B4BD-32F88B0E8EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14846300" y="6045200"/>
+          <a:ext cx="800100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E62F5C-84E7-014C-8566-3F4B6A4025D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7785100" y="698500"/>
+          <a:ext cx="1930400" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;App&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-JP" sz="1100"/>
+            <a:t>Secure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WebView</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>を起動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2229A4C8-B2D3-CB4A-A677-033FB0D1ADB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8750300" y="1206500"/>
+          <a:ext cx="406400" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203708</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Circular Arrow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0AEE5E-BEFE-4341-93CC-19EC9DE76DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13002414">
+          <a:off x="11607800" y="7696199"/>
+          <a:ext cx="978408" cy="2616200"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3017"/>
+            <a:gd name="adj2" fmla="val 1142319"/>
+            <a:gd name="adj3" fmla="val 20807551"/>
+            <a:gd name="adj4" fmla="val 10800000"/>
+            <a:gd name="adj5" fmla="val 11809"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636A5F8C-A463-344A-8516-CBA6B427287B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22771100" y="927100"/>
+          <a:ext cx="2120900" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;App&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>画面を表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE02FB6-C33B-264A-9AD7-73FEAC99C296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18643600" y="5981700"/>
+          <a:ext cx="812800" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179173</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="Group 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AF53FD-39EC-B141-AE96-6203462C1B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11798300" y="2946400"/>
+          <a:ext cx="3822700" cy="6198973"/>
+          <a:chOff x="19050000" y="2946400"/>
+          <a:chExt cx="3822700" cy="6198973"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Picture 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2453563A-3B10-7B4B-8CFB-C3DB23E723A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19050000" y="2946400"/>
+            <a:ext cx="3822700" cy="6198973"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="Picture 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C5EF7D-72C9-1948-80F8-A801688F4FA3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19392900" y="3492500"/>
+            <a:ext cx="2859249" cy="4953000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32798CE7-68E7-0A40-A89D-7D3A2592EB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20993100" y="5969000"/>
+          <a:ext cx="2349500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rounded Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F299C930-782F-BE48-93C5-680D8294832F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731500" y="10401300"/>
+          <a:ext cx="2997200" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>app.js: App Login Screen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>appLogin.ejs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>39473</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="Group 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC270421-D485-7343-8B18-BF0AE02BE3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15684500" y="3009900"/>
+          <a:ext cx="3683000" cy="6198973"/>
+          <a:chOff x="24625300" y="3009900"/>
+          <a:chExt cx="3822700" cy="6198973"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="43" name="Group 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CB76B0-0EE6-A947-A4D7-FDC995E4898C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="24625300" y="3009900"/>
+            <a:ext cx="3822700" cy="6198973"/>
+            <a:chOff x="24625300" y="3009900"/>
+            <a:chExt cx="3822700" cy="6198973"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="44" name="Group 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A76286-03C2-0B4D-B43F-276F0DF95281}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="24625300" y="3009900"/>
+              <a:ext cx="3822700" cy="6198973"/>
+              <a:chOff x="22771100" y="2921000"/>
+              <a:chExt cx="3822700" cy="6198973"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="47" name="Picture 46">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E4E2C7-03AB-044F-B4E6-30A7F6CA3F08}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="22771100" y="2921000"/>
+                <a:ext cx="3822700" cy="6198973"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="48" name="Picture 47">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFE5C40-3839-EF4B-892E-8050844475C5}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="23114000" y="3492500"/>
+                <a:ext cx="2853626" cy="4965700"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="49" name="Picture 48">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5476625A-D8FA-F145-885C-5863D936BAD8}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="23139400" y="3733800"/>
+                <a:ext cx="2743200" cy="4826978"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="Picture 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253005A3-2807-3541-8EF3-D5A416808CB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="27292300" y="6019800"/>
+              <a:ext cx="444500" cy="444500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Picture 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5E9CA4-9F71-FB43-9069-D51D5870832B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="25006300" y="6070600"/>
+              <a:ext cx="444500" cy="444500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="77" name="Picture 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B599303-2E85-D14A-98D2-AFD09FE55243}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="26212800" y="3619500"/>
+            <a:ext cx="482600" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rounded Rectangular Callout 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED212CAB-DACD-C645-B985-5A319D9E2C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2298700" y="6997700"/>
+          <a:ext cx="1638300" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68562"/>
+            <a:gd name="adj2" fmla="val 129293"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Appから渡されたtokenを、Cookieに設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3F2481-EBED-5D48-94CC-A94D68E38EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17386300" y="1460500"/>
+          <a:ext cx="1231900" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rounded Rectangular Callout 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BD8247-1BCD-4642-8D9F-2905CF2550E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772900" y="10096500"/>
+          <a:ext cx="2298700" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71950"/>
+            <a:gd name="adj2" fmla="val 2520"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>checkoutReviewReturnUrlには「/static/next.html」を指定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rounded Rectangular Callout 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CA683C-EA75-824A-894B-796A3A6FF738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15748000" y="2489200"/>
+          <a:ext cx="1549400" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57907"/>
+            <a:gd name="adj2" fmla="val 192820"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>CookieのtokenをURLパラメタとして付与</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4897,9 +6246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA858D-4327-E246-AC75-10AD98E76650}">
   <dimension ref="B1:BE58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8274,4 +9621,1551 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED98987-2D8D-AA4B-B624-4AAC5B5EB1D1}">
+  <dimension ref="B1:Y58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B2" s="13"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="15"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="6"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="6"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="6"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="6"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="6"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="6"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="6"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B29" s="15"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="6"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B30" s="15"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="6"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B31" s="15"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="6"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B32" s="15"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="6"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B33" s="15"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="6"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B34" s="15"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="6"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B35" s="15"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="6"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="6"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B37" s="15"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="6"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B38" s="15"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="6"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="6"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B40" s="15"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="6"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B41" s="15"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="6"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B42" s="15"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="6"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B43" s="15"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="6"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B44" s="15"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="6"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B45" s="15"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="6"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="6"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B47" s="15"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="6"/>
+    </row>
+    <row r="48" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="11"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B49" s="13"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="5"/>
+      <c r="Y50" s="6"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="Y51" s="6"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="6"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B53" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="6"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="6"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="6"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B56" s="15"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="6"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B57" s="15"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="6"/>
+    </row>
+    <row r="58" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E50" r:id="rId1" xr:uid="{D7D2F198-D545-964E-9477-C889B1041F4D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/android/flow-android.xlsx
+++ b/android/flow-android.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-sample-app-v2/android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA5F27-3D7A-9C41-B865-46EE3E3C3CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831681A-311C-5949-A3CB-5A6FB6867D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2860" yWindow="-28740" windowWidth="51400" windowHeight="24300" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="-2860" yWindow="-28740" windowWidth="38220" windowHeight="23560" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
   <sheets>
     <sheet name="flow" sheetId="4" r:id="rId1"/>
@@ -274,13 +274,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -302,12 +301,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,16 +1108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1134,7 +1132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8940800" y="723900"/>
+          <a:off x="7962900" y="647700"/>
           <a:ext cx="1930400" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1171,27 +1169,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Chrome</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Custom</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tabs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>を起動</a:t>
+            <a:t>AmazonPayActivityに移譲</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1200,10 +1178,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -1224,8 +1202,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10363200" y="1244600"/>
-          <a:ext cx="1270000" cy="1485900"/>
+          <a:off x="10960100" y="1193800"/>
+          <a:ext cx="673100" cy="1536700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2555,12 +2533,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -2577,8 +2555,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7340600" y="1320800"/>
-          <a:ext cx="1816100" cy="5257800"/>
+          <a:off x="7340600" y="1168400"/>
+          <a:ext cx="1790700" cy="5410200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4193,96 +4171,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Rectangle 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB92A6C2-B8D9-3343-A43D-7D5F5B0601B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32664400" y="850900"/>
-          <a:ext cx="1930400" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>&lt;MainActivityr&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Chrome</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Custom</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Tabs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>を起動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -4594,6 +4482,368 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018B9DFC-DA8C-1F43-86CD-2FEF9B3097F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10350500" y="635000"/>
+          <a:ext cx="2286000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;AmazonPayActivity&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Chrome</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Custom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tabs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>を起動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A183647-359C-BE46-97FD-D83F0FF45B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9893300" y="901700"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F70F6A-6520-2D46-BFD6-BC739109118D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31826200" y="825500"/>
+          <a:ext cx="1930400" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;MainActivityr&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AmazonPayActivityに移譲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB1A928-CD1A-B646-9E87-8A3D14A5C509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34213800" y="812800"/>
+          <a:ext cx="2286000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;AmazonPayActivity&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Chrome</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Custom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tabs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>を起動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689D8DBF-7288-FB42-A738-534C90775779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33756600" y="1079500"/>
+          <a:ext cx="457200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6250,12 +6500,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6313,718 +6563,141 @@
       <c r="BE2" s="4"/>
     </row>
     <row r="3" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B3" s="15"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6"/>
+      <c r="BE3" s="5"/>
     </row>
     <row r="4" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="BE4" s="5"/>
     </row>
     <row r="5" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="BE5" s="5"/>
     </row>
     <row r="6" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="BE6" s="5"/>
     </row>
     <row r="7" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="V7" s="7"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="17"/>
+      <c r="BE7" s="5"/>
     </row>
     <row r="8" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="BE8" s="5"/>
     </row>
     <row r="9" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="BE9" s="5"/>
     </row>
     <row r="10" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="BE10" s="5"/>
     </row>
     <row r="11" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="BE11" s="5"/>
     </row>
     <row r="12" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="BE12" s="5"/>
     </row>
     <row r="13" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="BE13" s="5"/>
     </row>
     <row r="14" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="10"/>
     </row>
     <row r="15" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -7082,1934 +6755,248 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="BE16" s="5"/>
     </row>
     <row r="17" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-      <c r="BE17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="BE17" s="5"/>
     </row>
     <row r="18" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5"/>
-      <c r="BE18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="BE18" s="5"/>
     </row>
     <row r="19" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="5"/>
-      <c r="AZ19" s="5"/>
-      <c r="BA19" s="5"/>
-      <c r="BB19" s="5"/>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="5"/>
-      <c r="BE19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="BE19" s="5"/>
     </row>
     <row r="20" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="BE20" s="5"/>
     </row>
     <row r="21" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="BE21" s="5"/>
     </row>
     <row r="22" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="BE22" s="5"/>
     </row>
     <row r="23" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="6"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="BE23" s="5"/>
     </row>
     <row r="24" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="6"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="6"/>
+      <c r="BE24" s="5"/>
     </row>
     <row r="25" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="6"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="6"/>
+      <c r="BE25" s="5"/>
     </row>
     <row r="26" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
-      <c r="AZ26" s="5"/>
-      <c r="BA26" s="5"/>
-      <c r="BB26" s="5"/>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="5"/>
-      <c r="BE26" s="6"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="6"/>
+      <c r="BE26" s="5"/>
     </row>
     <row r="27" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="5"/>
-      <c r="BE27" s="6"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="BE27" s="5"/>
     </row>
     <row r="28" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="6"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="6"/>
+      <c r="BE28" s="5"/>
     </row>
     <row r="29" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="6"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="BE29" s="5"/>
     </row>
     <row r="30" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
-      <c r="AZ30" s="5"/>
-      <c r="BA30" s="5"/>
-      <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
-      <c r="BD30" s="5"/>
-      <c r="BE30" s="6"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="6"/>
+      <c r="BE30" s="5"/>
     </row>
     <row r="31" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-      <c r="BE31" s="6"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="BE31" s="5"/>
     </row>
     <row r="32" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B32" s="15"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="5"/>
-      <c r="AZ32" s="5"/>
-      <c r="BA32" s="5"/>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-      <c r="BE32" s="6"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="6"/>
+      <c r="BE32" s="5"/>
     </row>
     <row r="33" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="6"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="6"/>
+      <c r="BE33" s="5"/>
     </row>
     <row r="34" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="6"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="6"/>
+      <c r="BE34" s="5"/>
     </row>
     <row r="35" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="5"/>
-      <c r="AU35" s="5"/>
-      <c r="AV35" s="5"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
-      <c r="AY35" s="5"/>
-      <c r="AZ35" s="5"/>
-      <c r="BA35" s="5"/>
-      <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="5"/>
-      <c r="BE35" s="6"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="6"/>
+      <c r="BE35" s="5"/>
     </row>
     <row r="36" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="5"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="5"/>
-      <c r="AV36" s="5"/>
-      <c r="AW36" s="5"/>
-      <c r="AX36" s="5"/>
-      <c r="AY36" s="5"/>
-      <c r="AZ36" s="5"/>
-      <c r="BA36" s="5"/>
-      <c r="BB36" s="5"/>
-      <c r="BC36" s="5"/>
-      <c r="BD36" s="5"/>
-      <c r="BE36" s="6"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="6"/>
+      <c r="BE36" s="5"/>
     </row>
     <row r="37" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
-      <c r="AR37" s="5"/>
-      <c r="AS37" s="5"/>
-      <c r="AT37" s="5"/>
-      <c r="AU37" s="5"/>
-      <c r="AV37" s="5"/>
-      <c r="AW37" s="5"/>
-      <c r="AX37" s="5"/>
-      <c r="AY37" s="5"/>
-      <c r="AZ37" s="5"/>
-      <c r="BA37" s="5"/>
-      <c r="BB37" s="5"/>
-      <c r="BC37" s="5"/>
-      <c r="BD37" s="5"/>
-      <c r="BE37" s="6"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="6"/>
+      <c r="BE37" s="5"/>
     </row>
     <row r="38" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="6"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="6"/>
+      <c r="BE38" s="5"/>
     </row>
     <row r="39" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BE39" s="6"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="6"/>
+      <c r="BE39" s="5"/>
     </row>
     <row r="40" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="6"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="6"/>
+      <c r="BE40" s="5"/>
     </row>
     <row r="41" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
-      <c r="BE41" s="6"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6"/>
+      <c r="BE41" s="5"/>
     </row>
     <row r="42" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="5"/>
-      <c r="AV42" s="5"/>
-      <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
-      <c r="AY42" s="5"/>
-      <c r="AZ42" s="5"/>
-      <c r="BA42" s="5"/>
-      <c r="BB42" s="5"/>
-      <c r="BC42" s="5"/>
-      <c r="BD42" s="5"/>
-      <c r="BE42" s="6"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="6"/>
+      <c r="BE42" s="5"/>
     </row>
     <row r="43" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-      <c r="BE43" s="6"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="BE43" s="5"/>
     </row>
     <row r="44" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5"/>
-      <c r="BA44" s="5"/>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="5"/>
-      <c r="BE44" s="6"/>
+      <c r="BE44" s="5"/>
     </row>
     <row r="45" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
-      <c r="C45" s="7"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5"/>
-      <c r="AU45" s="5"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="5"/>
-      <c r="AX45" s="5"/>
-      <c r="AY45" s="5"/>
-      <c r="AZ45" s="5"/>
-      <c r="BA45" s="5"/>
-      <c r="BB45" s="5"/>
-      <c r="BC45" s="5"/>
-      <c r="BD45" s="5"/>
-      <c r="BE45" s="6"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="BE45" s="5"/>
     </row>
     <row r="46" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="5"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="5"/>
-      <c r="AW46" s="5"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="5"/>
-      <c r="AZ46" s="5"/>
-      <c r="BA46" s="5"/>
-      <c r="BB46" s="5"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="5"/>
-      <c r="BE46" s="6"/>
+      <c r="BE46" s="5"/>
     </row>
     <row r="47" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="6"/>
       <c r="D47" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
-      <c r="AS47" s="5"/>
-      <c r="AT47" s="5"/>
-      <c r="AU47" s="5"/>
-      <c r="AV47" s="5"/>
-      <c r="AW47" s="5"/>
-      <c r="AX47" s="5"/>
-      <c r="AY47" s="5"/>
-      <c r="AZ47" s="5"/>
-      <c r="BA47" s="5"/>
-      <c r="BB47" s="5"/>
-      <c r="BC47" s="5"/>
-      <c r="BD47" s="5"/>
-      <c r="BE47" s="6"/>
+      <c r="L47" s="7"/>
+      <c r="BE47" s="5"/>
     </row>
     <row r="48" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="10"/>
-      <c r="AU48" s="10"/>
-      <c r="AV48" s="10"/>
-      <c r="AW48" s="10"/>
-      <c r="AX48" s="10"/>
-      <c r="AY48" s="10"/>
-      <c r="AZ48" s="10"/>
-      <c r="BA48" s="10"/>
-      <c r="BB48" s="10"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="11"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9"/>
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="9"/>
+      <c r="AY48" s="9"/>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="9"/>
+      <c r="BB48" s="9"/>
+      <c r="BC48" s="9"/>
+      <c r="BD48" s="9"/>
+      <c r="BE48" s="10"/>
     </row>
     <row r="49" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9020,10 +7007,10 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="18"/>
+      <c r="P49" s="16"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
@@ -9040,22 +7027,22 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
-      <c r="AJ49" s="18"/>
-      <c r="AK49" s="18"/>
-      <c r="AL49" s="18"/>
-      <c r="AM49" s="18"/>
-      <c r="AN49" s="18"/>
-      <c r="AO49" s="18"/>
-      <c r="AP49" s="18"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
-      <c r="AV49" s="18"/>
+      <c r="AV49" s="16"/>
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
@@ -9067,549 +7054,143 @@
       <c r="BE49" s="4"/>
     </row>
     <row r="50" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="8" t="s">
+      <c r="C50" s="6"/>
+      <c r="N50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="8" t="s">
+      <c r="S50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="AG50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AH50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5" t="s">
+      <c r="AQ50" t="s">
         <v>15</v>
       </c>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="5"/>
-      <c r="AT50" s="5"/>
-      <c r="AU50" s="5"/>
-      <c r="AV50" s="5"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="8" t="s">
+      <c r="AY50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AZ50" s="5"/>
-      <c r="BA50" s="5"/>
-      <c r="BB50" s="5"/>
-      <c r="BC50" s="5"/>
-      <c r="BD50" s="8"/>
-      <c r="BE50" s="6"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="5"/>
     </row>
     <row r="51" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
+      <c r="C51" s="6"/>
+      <c r="N51" t="s">
         <v>0</v>
       </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5" t="s">
+      <c r="AH51" t="s">
         <v>0</v>
       </c>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5" t="s">
+      <c r="AQ51" t="s">
         <v>16</v>
       </c>
-      <c r="AR51" s="5"/>
-      <c r="AS51" s="5"/>
-      <c r="AT51" s="5"/>
-      <c r="AU51" s="5"/>
-      <c r="AV51" s="5"/>
-      <c r="AW51" s="5"/>
-      <c r="AX51" s="5"/>
-      <c r="AY51" s="5" t="s">
+      <c r="AY51" t="s">
         <v>0</v>
       </c>
-      <c r="AZ51" s="5"/>
-      <c r="BA51" s="5"/>
-      <c r="BB51" s="5"/>
-      <c r="BC51" s="5"/>
-      <c r="BD51" s="5"/>
-      <c r="BE51" s="6"/>
+      <c r="BE51" s="5"/>
     </row>
     <row r="52" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="5"/>
-      <c r="AR52" s="5"/>
-      <c r="AS52" s="5"/>
-      <c r="AT52" s="5"/>
-      <c r="AU52" s="5"/>
-      <c r="AV52" s="5"/>
-      <c r="AW52" s="5"/>
-      <c r="AX52" s="5"/>
-      <c r="AY52" s="5"/>
-      <c r="AZ52" s="5"/>
-      <c r="BA52" s="5"/>
-      <c r="BB52" s="5"/>
-      <c r="BC52" s="5"/>
-      <c r="BD52" s="5"/>
-      <c r="BE52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="S52" s="7"/>
+      <c r="BE52" s="5"/>
     </row>
     <row r="53" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="BE53" s="5"/>
     </row>
     <row r="54" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-      <c r="AR54" s="5"/>
-      <c r="AS54" s="5"/>
-      <c r="AT54" s="5"/>
-      <c r="AU54" s="5"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="5"/>
-      <c r="AZ54" s="5"/>
-      <c r="BA54" s="5"/>
-      <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
-      <c r="BD54" s="5"/>
-      <c r="BE54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="BE54" s="5"/>
     </row>
     <row r="55" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-      <c r="AP55" s="5"/>
-      <c r="AQ55" s="5"/>
-      <c r="AR55" s="5"/>
-      <c r="AS55" s="5"/>
-      <c r="AT55" s="5"/>
-      <c r="AU55" s="5"/>
-      <c r="AV55" s="5"/>
-      <c r="AW55" s="5"/>
-      <c r="AX55" s="5"/>
-      <c r="AY55" s="5"/>
-      <c r="AZ55" s="5"/>
-      <c r="BA55" s="5"/>
-      <c r="BB55" s="5"/>
-      <c r="BC55" s="5"/>
-      <c r="BD55" s="5"/>
-      <c r="BE55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="BE55" s="5"/>
     </row>
     <row r="56" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
-      <c r="AQ56" s="5"/>
-      <c r="AR56" s="5"/>
-      <c r="AS56" s="5"/>
-      <c r="AT56" s="5"/>
-      <c r="AU56" s="5"/>
-      <c r="AV56" s="5"/>
-      <c r="AW56" s="5"/>
-      <c r="AX56" s="5"/>
-      <c r="AY56" s="5"/>
-      <c r="AZ56" s="5"/>
-      <c r="BA56" s="5"/>
-      <c r="BB56" s="5"/>
-      <c r="BC56" s="5"/>
-      <c r="BD56" s="5"/>
-      <c r="BE56" s="6"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="6"/>
+      <c r="BE56" s="5"/>
     </row>
     <row r="57" spans="2:57" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
-      <c r="AQ57" s="5"/>
-      <c r="AR57" s="5"/>
-      <c r="AS57" s="5"/>
-      <c r="AT57" s="5"/>
-      <c r="AU57" s="5"/>
-      <c r="AV57" s="5"/>
-      <c r="AW57" s="5"/>
-      <c r="AX57" s="5"/>
-      <c r="AY57" s="5"/>
-      <c r="AZ57" s="5"/>
-      <c r="BA57" s="5"/>
-      <c r="BB57" s="5"/>
-      <c r="BC57" s="5"/>
-      <c r="BD57" s="5"/>
-      <c r="BE57" s="6"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6"/>
+      <c r="P57" s="20"/>
+      <c r="BE57" s="5"/>
     </row>
     <row r="58" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
-      <c r="AP58" s="10"/>
-      <c r="AQ58" s="10"/>
-      <c r="AR58" s="10"/>
-      <c r="AS58" s="10"/>
-      <c r="AT58" s="10"/>
-      <c r="AU58" s="10"/>
-      <c r="AV58" s="10"/>
-      <c r="AW58" s="10"/>
-      <c r="AX58" s="10"/>
-      <c r="AY58" s="10"/>
-      <c r="AZ58" s="10"/>
-      <c r="BA58" s="10"/>
-      <c r="BB58" s="10"/>
-      <c r="BC58" s="10"/>
-      <c r="BD58" s="10"/>
-      <c r="BE58" s="11"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="9"/>
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="9"/>
+      <c r="AP58" s="9"/>
+      <c r="AQ58" s="9"/>
+      <c r="AR58" s="9"/>
+      <c r="AS58" s="9"/>
+      <c r="AT58" s="9"/>
+      <c r="AU58" s="9"/>
+      <c r="AV58" s="9"/>
+      <c r="AW58" s="9"/>
+      <c r="AX58" s="9"/>
+      <c r="AY58" s="9"/>
+      <c r="AZ58" s="9"/>
+      <c r="BA58" s="9"/>
+      <c r="BB58" s="9"/>
+      <c r="BC58" s="9"/>
+      <c r="BD58" s="9"/>
+      <c r="BE58" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9633,12 +7214,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -9664,335 +7245,109 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="15"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="17"/>
+      <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -10018,882 +7373,213 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="Y17" s="5"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="Y20" s="5"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B23" s="15"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="6"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="Y23" s="5"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="15"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="6"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="6"/>
+      <c r="Y24" s="5"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="6"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="6"/>
+      <c r="Y25" s="5"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="6"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="6"/>
+      <c r="Y26" s="5"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="6"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="Y27" s="5"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="6"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="6"/>
+      <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="6"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="6"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="6"/>
+      <c r="Y30" s="5"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
-      <c r="C31" s="7"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="6"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="6"/>
+      <c r="Y31" s="5"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="15"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="6"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="6"/>
+      <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="6"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="6"/>
+      <c r="Y33" s="5"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="6"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="6"/>
+      <c r="Y34" s="5"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="6"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="6"/>
+      <c r="Y35" s="5"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="6"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="6"/>
+      <c r="Y36" s="5"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="6"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="6"/>
+      <c r="Y37" s="5"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="6"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="6"/>
+      <c r="Y38" s="5"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="6"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="6"/>
+      <c r="Y39" s="5"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="6"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="6"/>
+      <c r="Y40" s="5"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="6"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6"/>
+      <c r="Y41" s="5"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="15"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="6"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="6"/>
+      <c r="Y42" s="5"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B43" s="15"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="6"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="Y43" s="5"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B44" s="15"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="6"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="6"/>
+      <c r="Y44" s="5"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="15"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="6"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="Y45" s="5"/>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="15"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="6"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="21"/>
+      <c r="Y46" s="5"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="6"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="6"/>
+      <c r="Y47" s="5"/>
     </row>
     <row r="48" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="11"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="10"/>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="18"/>
+      <c r="G49" s="16"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -10908,258 +7594,99 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
       <c r="Y49" s="4"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="8" t="s">
+      <c r="C50" s="6"/>
+      <c r="E50" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="5"/>
-      <c r="Y50" s="6"/>
+      <c r="J50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="Y50" s="5"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
+      <c r="C51" s="6"/>
+      <c r="E51" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="Y51" s="6"/>
+      <c r="Y51" s="5"/>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="J52" s="7"/>
+      <c r="Y52" s="5"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="Y53" s="5"/>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="Y54" s="5"/>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="Y55" s="5"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="6"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="6"/>
+      <c r="Y56" s="5"/>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="6"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6"/>
+      <c r="G57" s="20"/>
+      <c r="Y57" s="5"/>
     </row>
     <row r="58" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="11"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
